--- a/Code/Results/Cases/Case_8_61/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_61/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.57132982198805</v>
+        <v>24.57804919988314</v>
       </c>
       <c r="C2">
-        <v>19.68611225726119</v>
+        <v>20.00669581242685</v>
       </c>
       <c r="D2">
-        <v>4.400765465719598</v>
+        <v>4.450218434654637</v>
       </c>
       <c r="E2">
-        <v>29.2979206230188</v>
+        <v>29.29987979374057</v>
       </c>
       <c r="F2">
-        <v>17.65879749192125</v>
+        <v>17.33653515360797</v>
       </c>
       <c r="G2">
-        <v>2.069342029526969</v>
+        <v>2.33934794791278</v>
       </c>
       <c r="H2">
-        <v>3.21198782263627</v>
+        <v>3.213208390342718</v>
       </c>
       <c r="I2">
-        <v>3.293114856862141</v>
+        <v>3.306942752608099</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.99875074538869</v>
+        <v>10.78118052924603</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.21668582107554</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.731151562239121</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -472,48 +478,54 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.75714420857719</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.49625179426542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.97415796258189</v>
+        <v>22.99849282038825</v>
       </c>
       <c r="C3">
-        <v>18.48484422570127</v>
+        <v>18.72847861542402</v>
       </c>
       <c r="D3">
-        <v>4.242094697291446</v>
+        <v>4.260093256204624</v>
       </c>
       <c r="E3">
-        <v>27.4162200299645</v>
+        <v>27.44771015481434</v>
       </c>
       <c r="F3">
-        <v>17.1110035951773</v>
+        <v>16.81498580992391</v>
       </c>
       <c r="G3">
-        <v>2.073949692589864</v>
+        <v>1.74762067073638</v>
       </c>
       <c r="H3">
-        <v>2.959375323753326</v>
+        <v>2.978707843622518</v>
       </c>
       <c r="I3">
-        <v>3.116169546406364</v>
+        <v>3.163430594853373</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.26885273729694</v>
+        <v>11.02843876716696</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.43484032001213</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5.905782816682208</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -525,48 +537,54 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.56197248049606</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.30517415231163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.93453425593277</v>
+        <v>21.97027757198499</v>
       </c>
       <c r="C4">
-        <v>17.71141093757158</v>
+        <v>17.90490601323563</v>
       </c>
       <c r="D4">
-        <v>4.141390548467076</v>
+        <v>4.138977935445777</v>
       </c>
       <c r="E4">
-        <v>26.19662288322981</v>
+        <v>26.24717635622321</v>
       </c>
       <c r="F4">
-        <v>16.77851738992214</v>
+        <v>16.49356737847247</v>
       </c>
       <c r="G4">
-        <v>2.076863462107334</v>
+        <v>1.373083992088499</v>
       </c>
       <c r="H4">
-        <v>2.799026210832042</v>
+        <v>2.829700438794737</v>
       </c>
       <c r="I4">
-        <v>3.00489323499105</v>
+        <v>3.073295769952297</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.44060471556912</v>
+        <v>11.18363245213847</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.57379834041195</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.036673466390143</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -578,48 +596,54 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.45032954863971</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.19143524712858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.4958468967197</v>
+        <v>21.53642347974584</v>
       </c>
       <c r="C5">
-        <v>17.40038919329876</v>
+        <v>17.57227667664414</v>
       </c>
       <c r="D5">
-        <v>4.10142682589728</v>
+        <v>4.09038365569972</v>
       </c>
       <c r="E5">
-        <v>25.68325140012106</v>
+        <v>25.74186763883333</v>
       </c>
       <c r="F5">
-        <v>16.63308609943298</v>
+        <v>16.35177075086385</v>
       </c>
       <c r="G5">
-        <v>2.078078014370007</v>
+        <v>1.216857589782208</v>
       </c>
       <c r="H5">
-        <v>2.732212564202069</v>
+        <v>2.767584819457607</v>
       </c>
       <c r="I5">
-        <v>2.959302139390064</v>
+        <v>3.036706148275176</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.50632174849081</v>
+        <v>11.24239919288934</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.62649130138399</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.093193921750224</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -631,48 +655,54 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.39831158478571</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.13774808766198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.42188936843037</v>
+        <v>21.46328883074474</v>
       </c>
       <c r="C6">
-        <v>17.36424180023559</v>
+        <v>17.5319075581427</v>
       </c>
       <c r="D6">
-        <v>4.097034064208216</v>
+        <v>4.084484852275565</v>
       </c>
       <c r="E6">
-        <v>25.59677637433284</v>
+        <v>25.65677893644849</v>
       </c>
       <c r="F6">
-        <v>16.59547814966045</v>
+        <v>16.31520204837825</v>
       </c>
       <c r="G6">
-        <v>2.078287583171805</v>
+        <v>1.189858284356868</v>
       </c>
       <c r="H6">
-        <v>2.720882812408861</v>
+        <v>2.757058598431398</v>
       </c>
       <c r="I6">
-        <v>2.952406178570897</v>
+        <v>3.031625724521409</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.51037307719844</v>
+        <v>11.24574360236529</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.62899290775163</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.099968408844736</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -684,48 +714,54 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.37935807181203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.1188445845394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.92810590873536</v>
+        <v>21.96319933852013</v>
       </c>
       <c r="C7">
-        <v>17.75009948642507</v>
+        <v>17.91883106615911</v>
       </c>
       <c r="D7">
-        <v>4.147056276577862</v>
+        <v>4.155985165214539</v>
       </c>
       <c r="E7">
-        <v>26.18909180552012</v>
+        <v>26.23817025278563</v>
       </c>
       <c r="F7">
-        <v>16.73998118080082</v>
+        <v>16.39244677146668</v>
       </c>
       <c r="G7">
-        <v>2.076897274585937</v>
+        <v>1.401450280007888</v>
       </c>
       <c r="H7">
-        <v>2.797720427764714</v>
+        <v>2.827505085332932</v>
       </c>
       <c r="I7">
-        <v>3.00590747358528</v>
+        <v>3.073857957437816</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.42243031435367</v>
+        <v>11.14695562241143</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.53871916684328</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.018801629522141</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -737,48 +773,54 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.42125444615522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.11427214250395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.03215312177112</v>
+        <v>24.04262073060155</v>
       </c>
       <c r="C8">
-        <v>19.33208517919048</v>
+        <v>19.55409362457953</v>
       </c>
       <c r="D8">
-        <v>4.354714730295388</v>
+        <v>4.43080722631986</v>
       </c>
       <c r="E8">
-        <v>28.66161222595378</v>
+        <v>28.66861428048071</v>
       </c>
       <c r="F8">
-        <v>17.42268741291744</v>
+        <v>16.90829625199221</v>
       </c>
       <c r="G8">
-        <v>2.070934903087357</v>
+        <v>2.420789344503325</v>
       </c>
       <c r="H8">
-        <v>3.125456403655392</v>
+        <v>3.129801374106118</v>
       </c>
       <c r="I8">
-        <v>3.234318339414797</v>
+        <v>3.256270827824687</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.06504772844163</v>
+        <v>10.77820605591896</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.21613687778663</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.727996776639524</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -790,48 +832,54 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.6513175922111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.23517150333632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.69320758853449</v>
+        <v>27.661563146186</v>
       </c>
       <c r="C9">
-        <v>22.07929176533828</v>
+        <v>22.46795886428153</v>
       </c>
       <c r="D9">
-        <v>4.724163005252409</v>
+        <v>4.879993239077431</v>
       </c>
       <c r="E9">
-        <v>33.00349476760533</v>
+        <v>32.93972615750388</v>
       </c>
       <c r="F9">
-        <v>18.8478643155126</v>
+        <v>18.20162659129302</v>
       </c>
       <c r="G9">
-        <v>2.059862800832746</v>
+        <v>3.737959431221874</v>
       </c>
       <c r="H9">
-        <v>3.728400737819989</v>
+        <v>3.687895894360047</v>
       </c>
       <c r="I9">
-        <v>3.660396355443465</v>
+        <v>3.600349406328502</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.44920098011082</v>
+        <v>10.18389319082544</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.718184698247518</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.415827488276355</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -843,48 +891,54 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.21891114486604</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.72947993851259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.09820905998919</v>
+        <v>30.03409921816555</v>
       </c>
       <c r="C10">
-        <v>23.9017552814412</v>
+        <v>24.27782373024068</v>
       </c>
       <c r="D10">
-        <v>5.013183833654678</v>
+        <v>5.279144976176125</v>
       </c>
       <c r="E10">
-        <v>35.00945551576014</v>
+        <v>34.88932730675911</v>
       </c>
       <c r="F10">
-        <v>19.72520779127544</v>
+        <v>18.66029599354024</v>
       </c>
       <c r="G10">
-        <v>2.052314396474025</v>
+        <v>5.494475467980494</v>
       </c>
       <c r="H10">
-        <v>4.111220648524033</v>
+        <v>4.03471541348315</v>
       </c>
       <c r="I10">
-        <v>3.95609214497514</v>
+        <v>3.833731854356231</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.960390076044048</v>
+        <v>9.603076174124139</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.281908874373645</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.156670582480221</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -896,48 +950,54 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.53519327991657</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.72486991820584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.10146245252136</v>
+        <v>31.02483098548101</v>
       </c>
       <c r="C11">
-        <v>24.42647361994661</v>
+        <v>24.49282901377299</v>
       </c>
       <c r="D11">
-        <v>5.434796182234448</v>
+        <v>5.836370591190634</v>
       </c>
       <c r="E11">
-        <v>28.40729789861791</v>
+        <v>28.25588845319675</v>
       </c>
       <c r="F11">
-        <v>18.68884848769378</v>
+        <v>17.02936518950208</v>
       </c>
       <c r="G11">
-        <v>2.050703204716417</v>
+        <v>8.678065522211343</v>
       </c>
       <c r="H11">
-        <v>4.474311013552676</v>
+        <v>4.393409311533962</v>
       </c>
       <c r="I11">
-        <v>4.033935801681788</v>
+        <v>3.887967217610174</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.205238456376051</v>
+        <v>8.84679958893933</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.841765143109312</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4.44585792346501</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -949,48 +1009,54 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.5189042484793</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.25832591645413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.46304306064002</v>
+        <v>31.38404769583742</v>
       </c>
       <c r="C12">
-        <v>24.44980706811613</v>
+        <v>24.32083422183731</v>
       </c>
       <c r="D12">
-        <v>5.729367984559858</v>
+        <v>6.187801839720959</v>
       </c>
       <c r="E12">
-        <v>22.45707138743061</v>
+        <v>22.28675736963983</v>
       </c>
       <c r="F12">
-        <v>17.65882892166389</v>
+        <v>15.78157097681531</v>
       </c>
       <c r="G12">
-        <v>2.050677075613903</v>
+        <v>10.36285411420164</v>
       </c>
       <c r="H12">
-        <v>5.285985938374912</v>
+        <v>5.218075036764048</v>
       </c>
       <c r="I12">
-        <v>4.04216530293968</v>
+        <v>3.890568409152699</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.752190371464097</v>
+        <v>8.516762202212702</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.686309457542754</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.050030277613247</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1002,48 +1068,54 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12.62160736565963</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.22315330834353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.36490274056232</v>
+        <v>31.29155845678359</v>
       </c>
       <c r="C13">
-        <v>24.14132761924764</v>
+        <v>23.92925757856013</v>
       </c>
       <c r="D13">
-        <v>5.956767867390005</v>
+        <v>6.382212294373637</v>
       </c>
       <c r="E13">
-        <v>16.53719490668844</v>
+        <v>16.35300817653264</v>
       </c>
       <c r="F13">
-        <v>16.49693325690336</v>
+        <v>14.81461126540258</v>
       </c>
       <c r="G13">
-        <v>2.051887909077367</v>
+        <v>9.917337001133046</v>
       </c>
       <c r="H13">
-        <v>6.310640580527418</v>
+        <v>6.259975937573232</v>
       </c>
       <c r="I13">
-        <v>3.999864911627856</v>
+        <v>3.858392131359436</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.488383080011435</v>
+        <v>8.435326068458968</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.660109914958674</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>3.885260104059647</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1055,48 +1127,54 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.71189602489841</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.50555816455558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.08731045392176</v>
+        <v>31.02122350779577</v>
       </c>
       <c r="C14">
-        <v>23.78206908903756</v>
+        <v>23.55886520242233</v>
       </c>
       <c r="D14">
-        <v>6.089571944795972</v>
+        <v>6.450418871091804</v>
       </c>
       <c r="E14">
-        <v>12.47016769010045</v>
+        <v>12.27295802196914</v>
       </c>
       <c r="F14">
-        <v>15.60516450386204</v>
+        <v>14.23994571932819</v>
       </c>
       <c r="G14">
-        <v>2.053272935668478</v>
+        <v>8.659028410093237</v>
       </c>
       <c r="H14">
-        <v>7.112257117261008</v>
+        <v>7.072900702949458</v>
       </c>
       <c r="I14">
-        <v>3.948886944307731</v>
+        <v>3.821424581755103</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.402258026563961</v>
+        <v>8.465653345007098</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.67723007818782</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3.86848436898529</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1108,48 +1186,54 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.06409198397826</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.12746077607947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.91976923885232</v>
+        <v>30.85715074897654</v>
       </c>
       <c r="C15">
-        <v>23.63491866923673</v>
+        <v>23.42911811738277</v>
       </c>
       <c r="D15">
-        <v>6.109635458422109</v>
+        <v>6.436911591787283</v>
       </c>
       <c r="E15">
-        <v>11.49396809521523</v>
+        <v>11.29669564056124</v>
       </c>
       <c r="F15">
-        <v>15.34835251137699</v>
+        <v>14.13730765881733</v>
       </c>
       <c r="G15">
-        <v>2.053908325750193</v>
+        <v>7.956159703235103</v>
       </c>
       <c r="H15">
-        <v>7.296743688230291</v>
+        <v>7.260748659363758</v>
       </c>
       <c r="I15">
-        <v>3.925737381979623</v>
+        <v>3.8054924715222</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.412463637564919</v>
+        <v>8.501096406802725</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.691104587121082</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3.89503806384655</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1161,48 +1245,54 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10.89700671047383</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.08177301857239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.95489284321236</v>
+        <v>29.90857769089468</v>
       </c>
       <c r="C16">
-        <v>22.95267706476575</v>
+        <v>22.91956883990526</v>
       </c>
       <c r="D16">
-        <v>5.957334824200174</v>
+        <v>6.138626206070056</v>
       </c>
       <c r="E16">
-        <v>11.36867201766494</v>
+        <v>11.22123946208507</v>
       </c>
       <c r="F16">
-        <v>15.12782010279816</v>
+        <v>14.54365485101401</v>
       </c>
       <c r="G16">
-        <v>2.05686123949511</v>
+        <v>4.924707774053616</v>
       </c>
       <c r="H16">
-        <v>7.017828450917817</v>
+        <v>6.99107716362048</v>
       </c>
       <c r="I16">
-        <v>3.810416668810694</v>
+        <v>3.722833085029412</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.68320000529781</v>
+        <v>8.772277349908778</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.801487254719662</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.164190153679733</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1214,48 +1304,54 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10.9123957240211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.55093548838918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.35222165347083</v>
+        <v>29.31421208339354</v>
       </c>
       <c r="C17">
-        <v>22.61969712576759</v>
+        <v>22.70010645031958</v>
       </c>
       <c r="D17">
-        <v>5.76517734397627</v>
+        <v>5.889261549758919</v>
       </c>
       <c r="E17">
-        <v>13.47111462752143</v>
+        <v>13.3621388119314</v>
       </c>
       <c r="F17">
-        <v>15.44961959510552</v>
+        <v>15.09452325400071</v>
       </c>
       <c r="G17">
-        <v>2.058415306362105</v>
+        <v>3.960943472735522</v>
       </c>
       <c r="H17">
-        <v>6.32672913054662</v>
+        <v>6.302553024132074</v>
       </c>
       <c r="I17">
-        <v>3.748478416316313</v>
+        <v>3.677798486741612</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.92605898444485</v>
+        <v>8.991162520260184</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.913657875205296</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.375063335300912</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1267,48 +1363,54 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.27049414789898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.06413745931305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.00855371594733</v>
+        <v>28.97328714678373</v>
       </c>
       <c r="C18">
-        <v>22.5318738025979</v>
+        <v>22.72574913881687</v>
       </c>
       <c r="D18">
-        <v>5.514787600320387</v>
+        <v>5.626911225687234</v>
       </c>
       <c r="E18">
-        <v>18.03208599464794</v>
+        <v>17.94633969794576</v>
       </c>
       <c r="F18">
-        <v>16.29352233275186</v>
+        <v>15.97052845472748</v>
       </c>
       <c r="G18">
-        <v>2.058813051705701</v>
+        <v>3.730308406145059</v>
       </c>
       <c r="H18">
-        <v>5.289581024017687</v>
+        <v>5.262209596705133</v>
       </c>
       <c r="I18">
-        <v>3.726463043206665</v>
+        <v>3.660693609853478</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.215245510146007</v>
+        <v>9.230876362840219</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.05879322183741</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.607936993615406</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1320,48 +1422,54 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.98277368812984</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.78603111634519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.9053450225813</v>
+        <v>28.86796147698869</v>
       </c>
       <c r="C19">
-        <v>22.71852529915984</v>
+        <v>23.02920511730399</v>
       </c>
       <c r="D19">
-        <v>5.253493428924106</v>
+        <v>5.378866337682308</v>
       </c>
       <c r="E19">
-        <v>24.30908136169119</v>
+        <v>24.23003373364917</v>
       </c>
       <c r="F19">
-        <v>17.42405056891124</v>
+        <v>17.02652183197721</v>
       </c>
       <c r="G19">
-        <v>2.05810953880202</v>
+        <v>3.78998199117429</v>
       </c>
       <c r="H19">
-        <v>4.307835094031145</v>
+        <v>4.27050899777682</v>
       </c>
       <c r="I19">
-        <v>3.7489575971587</v>
+        <v>3.679961667912285</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.548529362863837</v>
+        <v>9.490003899554827</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.227581112432979</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.868115221632416</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1373,48 +1481,54 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12.88574335348547</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.62000065146144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.48400043952717</v>
+        <v>29.43059475986322</v>
       </c>
       <c r="C20">
-        <v>23.53816806976008</v>
+        <v>23.97787481563963</v>
       </c>
       <c r="D20">
-        <v>4.957489893029221</v>
+        <v>5.157081002151588</v>
       </c>
       <c r="E20">
-        <v>34.45341904771124</v>
+        <v>34.35285192724871</v>
       </c>
       <c r="F20">
-        <v>19.38891650172488</v>
+        <v>18.63676661379867</v>
       </c>
       <c r="G20">
-        <v>2.05432465071395</v>
+        <v>4.489627965469036</v>
       </c>
       <c r="H20">
-        <v>4.008591583102258</v>
+        <v>3.944585557646914</v>
       </c>
       <c r="I20">
-        <v>3.884825615613567</v>
+        <v>3.785929503335954</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.02158607945768</v>
+        <v>9.767716974760816</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.39976424957201</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.232660231447929</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1426,48 +1540,54 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.36209559591182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.80304445491771</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.2479043683756</v>
+        <v>31.15860587849165</v>
       </c>
       <c r="C21">
-        <v>24.9117657646177</v>
+        <v>25.03518608719524</v>
       </c>
       <c r="D21">
-        <v>5.118476507393338</v>
+        <v>5.599982732610502</v>
       </c>
       <c r="E21">
-        <v>37.26690715573221</v>
+        <v>37.10045221937682</v>
       </c>
       <c r="F21">
-        <v>20.3377588959519</v>
+        <v>18.22314098098469</v>
       </c>
       <c r="G21">
-        <v>2.048285960253048</v>
+        <v>10.28123779022691</v>
       </c>
       <c r="H21">
-        <v>4.354353199179665</v>
+        <v>4.24743117892371</v>
       </c>
       <c r="I21">
-        <v>4.118501258135455</v>
+        <v>3.950757407557091</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.768619622906114</v>
+        <v>9.078832733460599</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.95988566142104</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>4.776168417091906</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1479,48 +1599,54 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.8411501803784</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.17571094613718</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.34934663268415</v>
+        <v>32.23759071210296</v>
       </c>
       <c r="C22">
-        <v>25.71877032763497</v>
+        <v>25.61714142213285</v>
       </c>
       <c r="D22">
-        <v>5.23018164674734</v>
+        <v>5.907440336685036</v>
       </c>
       <c r="E22">
-        <v>38.59756149852075</v>
+        <v>38.39035931873945</v>
       </c>
       <c r="F22">
-        <v>20.91217313661254</v>
+        <v>17.85891809903426</v>
       </c>
       <c r="G22">
-        <v>2.044489340398655</v>
+        <v>15.12734174458256</v>
       </c>
       <c r="H22">
-        <v>4.557537614730223</v>
+        <v>4.424230455751144</v>
       </c>
       <c r="I22">
-        <v>4.263653745208625</v>
+        <v>4.052149288032955</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.607975491875465</v>
+        <v>8.625318714609653</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.710426027995888</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>4.450095491370011</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1532,48 +1658,54 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.12765401268986</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.68809452007424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.7664997476761</v>
+        <v>31.66768393728254</v>
       </c>
       <c r="C23">
-        <v>25.25353475447802</v>
+        <v>25.31714944982336</v>
       </c>
       <c r="D23">
-        <v>5.164559750458285</v>
+        <v>5.709824489623418</v>
       </c>
       <c r="E23">
-        <v>37.89284376625341</v>
+        <v>37.70943479764464</v>
       </c>
       <c r="F23">
-        <v>20.64088305169348</v>
+        <v>18.22546727547551</v>
       </c>
       <c r="G23">
-        <v>2.046496125157973</v>
+        <v>11.77449862395221</v>
       </c>
       <c r="H23">
-        <v>4.449765178094821</v>
+        <v>4.331876671448746</v>
       </c>
       <c r="I23">
-        <v>4.18402781906911</v>
+        <v>3.996484819364705</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.717099698531245</v>
+        <v>8.922332105975526</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.865489534223912</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>4.695733598652285</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1585,48 +1717,54 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.00368725805466</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.08949697292779</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.45807962386178</v>
+        <v>29.40443911615439</v>
       </c>
       <c r="C24">
-        <v>23.48445779977117</v>
+        <v>23.94026988144194</v>
       </c>
       <c r="D24">
-        <v>4.918670442169679</v>
+        <v>5.117927145714606</v>
       </c>
       <c r="E24">
-        <v>35.11434630722091</v>
+        <v>35.01369435808286</v>
       </c>
       <c r="F24">
-        <v>19.5590295909754</v>
+        <v>18.80449708091326</v>
       </c>
       <c r="G24">
-        <v>2.05422681600345</v>
+        <v>4.479507027964511</v>
       </c>
       <c r="H24">
-        <v>4.033895005231783</v>
+        <v>3.969571416882607</v>
       </c>
       <c r="I24">
-        <v>3.882589569815417</v>
+        <v>3.781468512951489</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.11091368743432</v>
+        <v>9.841740401391421</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.446555236588663</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.305357764119212</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1638,48 +1776,54 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.50555679459019</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.94268247370477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.75153036183912</v>
+        <v>26.73199050941408</v>
       </c>
       <c r="C25">
-        <v>21.43235088523669</v>
+        <v>21.80409275787151</v>
       </c>
       <c r="D25">
-        <v>4.637676036287554</v>
+        <v>4.757302211512375</v>
       </c>
       <c r="E25">
-        <v>31.88194319227137</v>
+        <v>31.83901015276237</v>
       </c>
       <c r="F25">
-        <v>18.40071727318189</v>
+        <v>17.87969933036414</v>
       </c>
       <c r="G25">
-        <v>2.062818468278568</v>
+        <v>3.23366992563324</v>
       </c>
       <c r="H25">
-        <v>3.568815287162672</v>
+        <v>3.541666677619475</v>
       </c>
       <c r="I25">
-        <v>3.550107227485917</v>
+        <v>3.515178474138697</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.57427337193514</v>
+        <v>10.33848232509505</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.846657819831703</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.473176229888914</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.00931788608882</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.6125917246581</v>
       </c>
     </row>
   </sheetData>
